--- a/Dokumentation/Statistiken/Genauigkeit/foundpoints-integral-bary-30grad.xlsx
+++ b/Dokumentation/Statistiken/Genauigkeit/foundpoints-integral-bary-30grad.xlsx
@@ -9,11 +9,16 @@
   <sheets>
     <sheet name="foundpoints-integral-bary-30gra" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Falsche Linie gewertet in der Mitte links -&gt; wurde manuell korrigert</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1014,12 +1019,6 @@
                 <c:pt idx="139">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="140">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>125</c:v>
-                </c:pt>
                 <c:pt idx="142">
                   <c:v>121</c:v>
                 </c:pt>
@@ -3441,95 +3440,89 @@
                 <c:pt idx="139">
                   <c:v>393</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="142">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>368</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="153">
                   <c:v>368</c:v>
                 </c:pt>
-                <c:pt idx="142">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>416</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>416</c:v>
-                </c:pt>
                 <c:pt idx="154">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>416</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>376</c:v>
@@ -5973,11 +5966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239662208"/>
-        <c:axId val="239664128"/>
+        <c:axId val="149905408"/>
+        <c:axId val="149906944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239662208"/>
+        <c:axId val="149905408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5987,12 +5980,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239664128"/>
+        <c:crossAx val="149906944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239664128"/>
+        <c:axId val="149906944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6003,7 +5996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239662208"/>
+        <c:crossAx val="149905408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6060,5978 +6053,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="foundpoints-linear-0grad"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>0</v>
-          </cell>
-          <cell r="C1">
-            <v>0</v>
-          </cell>
-          <cell r="D1">
-            <v>0</v>
-          </cell>
-          <cell r="E1">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0</v>
-          </cell>
-          <cell r="E3">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="D4">
-            <v>0</v>
-          </cell>
-          <cell r="E4">
-            <v>288</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-          <cell r="E5">
-            <v>384</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="E6">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0</v>
-          </cell>
-          <cell r="E7">
-            <v>576</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-          <cell r="C8">
-            <v>0</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>672</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-          <cell r="C9">
-            <v>0</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>768</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>128</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>128</v>
-          </cell>
-          <cell r="E11">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-          <cell r="C12">
-            <v>0</v>
-          </cell>
-          <cell r="D12">
-            <v>128</v>
-          </cell>
-          <cell r="E12">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>128</v>
-          </cell>
-          <cell r="E13">
-            <v>288</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-          <cell r="D14">
-            <v>128</v>
-          </cell>
-          <cell r="E14">
-            <v>384</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-          <cell r="C15">
-            <v>0</v>
-          </cell>
-          <cell r="D15">
-            <v>128</v>
-          </cell>
-          <cell r="E15">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-          <cell r="C16">
-            <v>0</v>
-          </cell>
-          <cell r="D16">
-            <v>128</v>
-          </cell>
-          <cell r="E16">
-            <v>576</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-          <cell r="C17">
-            <v>0</v>
-          </cell>
-          <cell r="D17">
-            <v>128</v>
-          </cell>
-          <cell r="E17">
-            <v>672</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0</v>
-          </cell>
-          <cell r="C18">
-            <v>0</v>
-          </cell>
-          <cell r="D18">
-            <v>128</v>
-          </cell>
-          <cell r="E18">
-            <v>768</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-          <cell r="C19">
-            <v>0</v>
-          </cell>
-          <cell r="D19">
-            <v>256</v>
-          </cell>
-          <cell r="E19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0</v>
-          </cell>
-          <cell r="C20">
-            <v>0</v>
-          </cell>
-          <cell r="D20">
-            <v>256</v>
-          </cell>
-          <cell r="E20">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0</v>
-          </cell>
-          <cell r="C21">
-            <v>0</v>
-          </cell>
-          <cell r="D21">
-            <v>256</v>
-          </cell>
-          <cell r="E21">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0</v>
-          </cell>
-          <cell r="C22">
-            <v>0</v>
-          </cell>
-          <cell r="D22">
-            <v>256</v>
-          </cell>
-          <cell r="E22">
-            <v>288</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0</v>
-          </cell>
-          <cell r="C23">
-            <v>0</v>
-          </cell>
-          <cell r="D23">
-            <v>256</v>
-          </cell>
-          <cell r="E23">
-            <v>384</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>0</v>
-          </cell>
-          <cell r="C24">
-            <v>0</v>
-          </cell>
-          <cell r="D24">
-            <v>256</v>
-          </cell>
-          <cell r="E24">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>256</v>
-          </cell>
-          <cell r="E25">
-            <v>576</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-          <cell r="D26">
-            <v>256</v>
-          </cell>
-          <cell r="E26">
-            <v>672</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>0</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
-          </cell>
-          <cell r="D27">
-            <v>256</v>
-          </cell>
-          <cell r="E27">
-            <v>768</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>0</v>
-          </cell>
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-          <cell r="D28">
-            <v>384</v>
-          </cell>
-          <cell r="E28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-          <cell r="C29">
-            <v>0</v>
-          </cell>
-          <cell r="D29">
-            <v>384</v>
-          </cell>
-          <cell r="E29">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-          <cell r="D30">
-            <v>384</v>
-          </cell>
-          <cell r="E30">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-          <cell r="C31">
-            <v>0</v>
-          </cell>
-          <cell r="D31">
-            <v>384</v>
-          </cell>
-          <cell r="E31">
-            <v>288</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>0</v>
-          </cell>
-          <cell r="D32">
-            <v>384</v>
-          </cell>
-          <cell r="E32">
-            <v>384</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>0</v>
-          </cell>
-          <cell r="C33">
-            <v>0</v>
-          </cell>
-          <cell r="D33">
-            <v>384</v>
-          </cell>
-          <cell r="E33">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>0</v>
-          </cell>
-          <cell r="D34">
-            <v>384</v>
-          </cell>
-          <cell r="E34">
-            <v>576</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-          <cell r="C35">
-            <v>0</v>
-          </cell>
-          <cell r="D35">
-            <v>384</v>
-          </cell>
-          <cell r="E35">
-            <v>672</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>0</v>
-          </cell>
-          <cell r="C36">
-            <v>0</v>
-          </cell>
-          <cell r="D36">
-            <v>384</v>
-          </cell>
-          <cell r="E36">
-            <v>768</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>0</v>
-          </cell>
-          <cell r="C37">
-            <v>0</v>
-          </cell>
-          <cell r="D37">
-            <v>512</v>
-          </cell>
-          <cell r="E37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>0</v>
-          </cell>
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-          <cell r="D38">
-            <v>512</v>
-          </cell>
-          <cell r="E38">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>0</v>
-          </cell>
-          <cell r="C39">
-            <v>0</v>
-          </cell>
-          <cell r="D39">
-            <v>512</v>
-          </cell>
-          <cell r="E39">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>0</v>
-          </cell>
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-          <cell r="D40">
-            <v>512</v>
-          </cell>
-          <cell r="E40">
-            <v>288</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0</v>
-          </cell>
-          <cell r="C41">
-            <v>0</v>
-          </cell>
-          <cell r="D41">
-            <v>512</v>
-          </cell>
-          <cell r="E41">
-            <v>384</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>0</v>
-          </cell>
-          <cell r="C42">
-            <v>0</v>
-          </cell>
-          <cell r="D42">
-            <v>512</v>
-          </cell>
-          <cell r="E42">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0</v>
-          </cell>
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-          <cell r="D43">
-            <v>512</v>
-          </cell>
-          <cell r="E43">
-            <v>576</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0</v>
-          </cell>
-          <cell r="C44">
-            <v>0</v>
-          </cell>
-          <cell r="D44">
-            <v>512</v>
-          </cell>
-          <cell r="E44">
-            <v>672</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>0</v>
-          </cell>
-          <cell r="C45">
-            <v>0</v>
-          </cell>
-          <cell r="D45">
-            <v>512</v>
-          </cell>
-          <cell r="E45">
-            <v>768</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>0</v>
-          </cell>
-          <cell r="C46">
-            <v>0</v>
-          </cell>
-          <cell r="D46">
-            <v>640</v>
-          </cell>
-          <cell r="E46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>0</v>
-          </cell>
-          <cell r="C47">
-            <v>0</v>
-          </cell>
-          <cell r="D47">
-            <v>640</v>
-          </cell>
-          <cell r="E47">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>0</v>
-          </cell>
-          <cell r="C48">
-            <v>0</v>
-          </cell>
-          <cell r="D48">
-            <v>640</v>
-          </cell>
-          <cell r="E48">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>0</v>
-          </cell>
-          <cell r="C49">
-            <v>0</v>
-          </cell>
-          <cell r="D49">
-            <v>640</v>
-          </cell>
-          <cell r="E49">
-            <v>288</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>0</v>
-          </cell>
-          <cell r="C50">
-            <v>0</v>
-          </cell>
-          <cell r="D50">
-            <v>640</v>
-          </cell>
-          <cell r="E50">
-            <v>384</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>0</v>
-          </cell>
-          <cell r="C51">
-            <v>0</v>
-          </cell>
-          <cell r="D51">
-            <v>640</v>
-          </cell>
-          <cell r="E51">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>0</v>
-          </cell>
-          <cell r="C52">
-            <v>0</v>
-          </cell>
-          <cell r="D52">
-            <v>640</v>
-          </cell>
-          <cell r="E52">
-            <v>576</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>0</v>
-          </cell>
-          <cell r="C53">
-            <v>0</v>
-          </cell>
-          <cell r="D53">
-            <v>640</v>
-          </cell>
-          <cell r="E53">
-            <v>672</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>0</v>
-          </cell>
-          <cell r="C54">
-            <v>0</v>
-          </cell>
-          <cell r="D54">
-            <v>640</v>
-          </cell>
-          <cell r="E54">
-            <v>768</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>0</v>
-          </cell>
-          <cell r="C55">
-            <v>0</v>
-          </cell>
-          <cell r="D55">
-            <v>768</v>
-          </cell>
-          <cell r="E55">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>0</v>
-          </cell>
-          <cell r="C56">
-            <v>0</v>
-          </cell>
-          <cell r="D56">
-            <v>768</v>
-          </cell>
-          <cell r="E56">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>0</v>
-          </cell>
-          <cell r="C57">
-            <v>0</v>
-          </cell>
-          <cell r="D57">
-            <v>768</v>
-          </cell>
-          <cell r="E57">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>0</v>
-          </cell>
-          <cell r="C58">
-            <v>0</v>
-          </cell>
-          <cell r="D58">
-            <v>768</v>
-          </cell>
-          <cell r="E58">
-            <v>288</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>0</v>
-          </cell>
-          <cell r="C59">
-            <v>0</v>
-          </cell>
-          <cell r="D59">
-            <v>768</v>
-          </cell>
-          <cell r="E59">
-            <v>384</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>0</v>
-          </cell>
-          <cell r="C60">
-            <v>0</v>
-          </cell>
-          <cell r="D60">
-            <v>768</v>
-          </cell>
-          <cell r="E60">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>0</v>
-          </cell>
-          <cell r="C61">
-            <v>0</v>
-          </cell>
-          <cell r="D61">
-            <v>768</v>
-          </cell>
-          <cell r="E61">
-            <v>576</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>0</v>
-          </cell>
-          <cell r="C62">
-            <v>0</v>
-          </cell>
-          <cell r="D62">
-            <v>768</v>
-          </cell>
-          <cell r="E62">
-            <v>672</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>0</v>
-          </cell>
-          <cell r="C63">
-            <v>0</v>
-          </cell>
-          <cell r="D63">
-            <v>768</v>
-          </cell>
-          <cell r="E63">
-            <v>768</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>0</v>
-          </cell>
-          <cell r="C64">
-            <v>0</v>
-          </cell>
-          <cell r="D64">
-            <v>896</v>
-          </cell>
-          <cell r="E64">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>0</v>
-          </cell>
-          <cell r="C65">
-            <v>0</v>
-          </cell>
-          <cell r="D65">
-            <v>896</v>
-          </cell>
-          <cell r="E65">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>0</v>
-          </cell>
-          <cell r="C66">
-            <v>0</v>
-          </cell>
-          <cell r="D66">
-            <v>896</v>
-          </cell>
-          <cell r="E66">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>0</v>
-          </cell>
-          <cell r="C67">
-            <v>0</v>
-          </cell>
-          <cell r="D67">
-            <v>896</v>
-          </cell>
-          <cell r="E67">
-            <v>288</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>0</v>
-          </cell>
-          <cell r="C68">
-            <v>0</v>
-          </cell>
-          <cell r="D68">
-            <v>896</v>
-          </cell>
-          <cell r="E68">
-            <v>384</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>0</v>
-          </cell>
-          <cell r="C69">
-            <v>0</v>
-          </cell>
-          <cell r="D69">
-            <v>896</v>
-          </cell>
-          <cell r="E69">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>0</v>
-          </cell>
-          <cell r="C70">
-            <v>0</v>
-          </cell>
-          <cell r="D70">
-            <v>896</v>
-          </cell>
-          <cell r="E70">
-            <v>576</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>0</v>
-          </cell>
-          <cell r="C71">
-            <v>0</v>
-          </cell>
-          <cell r="D71">
-            <v>896</v>
-          </cell>
-          <cell r="E71">
-            <v>672</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>0</v>
-          </cell>
-          <cell r="C72">
-            <v>0</v>
-          </cell>
-          <cell r="D72">
-            <v>896</v>
-          </cell>
-          <cell r="E72">
-            <v>768</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>0</v>
-          </cell>
-          <cell r="C73">
-            <v>0</v>
-          </cell>
-          <cell r="D73">
-            <v>1024</v>
-          </cell>
-          <cell r="E73">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>0</v>
-          </cell>
-          <cell r="C74">
-            <v>0</v>
-          </cell>
-          <cell r="D74">
-            <v>1024</v>
-          </cell>
-          <cell r="E74">
-            <v>96</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>0</v>
-          </cell>
-          <cell r="C75">
-            <v>0</v>
-          </cell>
-          <cell r="D75">
-            <v>1024</v>
-          </cell>
-          <cell r="E75">
-            <v>192</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>0</v>
-          </cell>
-          <cell r="C76">
-            <v>0</v>
-          </cell>
-          <cell r="D76">
-            <v>1024</v>
-          </cell>
-          <cell r="E76">
-            <v>288</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>0</v>
-          </cell>
-          <cell r="C77">
-            <v>0</v>
-          </cell>
-          <cell r="D77">
-            <v>1024</v>
-          </cell>
-          <cell r="E77">
-            <v>384</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>0</v>
-          </cell>
-          <cell r="C78">
-            <v>0</v>
-          </cell>
-          <cell r="D78">
-            <v>1024</v>
-          </cell>
-          <cell r="E78">
-            <v>480</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>0</v>
-          </cell>
-          <cell r="C79">
-            <v>0</v>
-          </cell>
-          <cell r="D79">
-            <v>1024</v>
-          </cell>
-          <cell r="E79">
-            <v>576</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>0</v>
-          </cell>
-          <cell r="C80">
-            <v>0</v>
-          </cell>
-          <cell r="D80">
-            <v>1024</v>
-          </cell>
-          <cell r="E80">
-            <v>672</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>0</v>
-          </cell>
-          <cell r="C81">
-            <v>0</v>
-          </cell>
-          <cell r="D81">
-            <v>1024</v>
-          </cell>
-          <cell r="E81">
-            <v>768</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>0</v>
-          </cell>
-          <cell r="C82">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>0</v>
-          </cell>
-          <cell r="C83">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>0</v>
-          </cell>
-          <cell r="C84">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>0</v>
-          </cell>
-          <cell r="C85">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>0</v>
-          </cell>
-          <cell r="C86">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>0</v>
-          </cell>
-          <cell r="C87">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>0</v>
-          </cell>
-          <cell r="C88">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>0</v>
-          </cell>
-          <cell r="C89">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>0</v>
-          </cell>
-          <cell r="C90">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>0</v>
-          </cell>
-          <cell r="C91">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>0</v>
-          </cell>
-          <cell r="C92">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>0</v>
-          </cell>
-          <cell r="C93">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>0</v>
-          </cell>
-          <cell r="C94">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>0</v>
-          </cell>
-          <cell r="C95">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>0</v>
-          </cell>
-          <cell r="C96">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>0</v>
-          </cell>
-          <cell r="C97">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>0</v>
-          </cell>
-          <cell r="C98">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>0</v>
-          </cell>
-          <cell r="C99">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>0</v>
-          </cell>
-          <cell r="C100">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>0</v>
-          </cell>
-          <cell r="C101">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>0</v>
-          </cell>
-          <cell r="C102">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>0</v>
-          </cell>
-          <cell r="C103">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>0</v>
-          </cell>
-          <cell r="C104">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>0</v>
-          </cell>
-          <cell r="C105">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>0</v>
-          </cell>
-          <cell r="C106">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>0</v>
-          </cell>
-          <cell r="C107">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>0</v>
-          </cell>
-          <cell r="C108">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>0</v>
-          </cell>
-          <cell r="C109">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>0</v>
-          </cell>
-          <cell r="C110">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>0</v>
-          </cell>
-          <cell r="C111">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>0</v>
-          </cell>
-          <cell r="C112">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>0</v>
-          </cell>
-          <cell r="C113">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>0</v>
-          </cell>
-          <cell r="C114">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>0</v>
-          </cell>
-          <cell r="C115">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>0</v>
-          </cell>
-          <cell r="C116">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>0</v>
-          </cell>
-          <cell r="C117">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>0</v>
-          </cell>
-          <cell r="C118">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>0</v>
-          </cell>
-          <cell r="C119">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>0</v>
-          </cell>
-          <cell r="C120">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>0</v>
-          </cell>
-          <cell r="C121">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>0</v>
-          </cell>
-          <cell r="C122">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>0</v>
-          </cell>
-          <cell r="C123">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>0</v>
-          </cell>
-          <cell r="C124">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>0</v>
-          </cell>
-          <cell r="C125">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>0</v>
-          </cell>
-          <cell r="C126">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>0</v>
-          </cell>
-          <cell r="C127">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>0</v>
-          </cell>
-          <cell r="C128">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>0</v>
-          </cell>
-          <cell r="C129">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>0</v>
-          </cell>
-          <cell r="C130">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>0</v>
-          </cell>
-          <cell r="C131">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>0</v>
-          </cell>
-          <cell r="C132">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>0</v>
-          </cell>
-          <cell r="C133">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>0</v>
-          </cell>
-          <cell r="C134">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>0</v>
-          </cell>
-          <cell r="C135">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>0</v>
-          </cell>
-          <cell r="C136">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>0</v>
-          </cell>
-          <cell r="C137">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>0</v>
-          </cell>
-          <cell r="C138">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>0</v>
-          </cell>
-          <cell r="C139">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>0</v>
-          </cell>
-          <cell r="C140">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>0</v>
-          </cell>
-          <cell r="C141">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>0</v>
-          </cell>
-          <cell r="C142">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>0</v>
-          </cell>
-          <cell r="C143">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>0</v>
-          </cell>
-          <cell r="C144">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>0</v>
-          </cell>
-          <cell r="C145">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>0</v>
-          </cell>
-          <cell r="C146">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>0</v>
-          </cell>
-          <cell r="C147">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>0</v>
-          </cell>
-          <cell r="C148">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>0</v>
-          </cell>
-          <cell r="C149">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>0</v>
-          </cell>
-          <cell r="C150">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>0</v>
-          </cell>
-          <cell r="C151">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>0</v>
-          </cell>
-          <cell r="C152">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>0</v>
-          </cell>
-          <cell r="C153">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>0</v>
-          </cell>
-          <cell r="C154">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>0</v>
-          </cell>
-          <cell r="C155">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>0</v>
-          </cell>
-          <cell r="C156">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>0</v>
-          </cell>
-          <cell r="C157">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>0</v>
-          </cell>
-          <cell r="C158">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>0</v>
-          </cell>
-          <cell r="C159">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>0</v>
-          </cell>
-          <cell r="C160">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>0</v>
-          </cell>
-          <cell r="C161">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>0</v>
-          </cell>
-          <cell r="C162">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>0</v>
-          </cell>
-          <cell r="C163">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>0</v>
-          </cell>
-          <cell r="C164">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>0</v>
-          </cell>
-          <cell r="C165">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>0</v>
-          </cell>
-          <cell r="C166">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>0</v>
-          </cell>
-          <cell r="C167">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>0</v>
-          </cell>
-          <cell r="C168">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>0</v>
-          </cell>
-          <cell r="C169">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>0</v>
-          </cell>
-          <cell r="C170">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>0</v>
-          </cell>
-          <cell r="C171">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>0</v>
-          </cell>
-          <cell r="C172">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>0</v>
-          </cell>
-          <cell r="C173">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>0</v>
-          </cell>
-          <cell r="C174">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>0</v>
-          </cell>
-          <cell r="C175">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>0</v>
-          </cell>
-          <cell r="C176">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>0</v>
-          </cell>
-          <cell r="C177">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>0</v>
-          </cell>
-          <cell r="C178">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>0</v>
-          </cell>
-          <cell r="C179">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>0</v>
-          </cell>
-          <cell r="C180">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>0</v>
-          </cell>
-          <cell r="C181">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>0</v>
-          </cell>
-          <cell r="C182">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>0</v>
-          </cell>
-          <cell r="C183">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>0</v>
-          </cell>
-          <cell r="C184">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>0</v>
-          </cell>
-          <cell r="C185">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>0</v>
-          </cell>
-          <cell r="C186">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>0</v>
-          </cell>
-          <cell r="C187">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>0</v>
-          </cell>
-          <cell r="C188">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>0</v>
-          </cell>
-          <cell r="C189">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>0</v>
-          </cell>
-          <cell r="C190">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>0</v>
-          </cell>
-          <cell r="C191">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192">
-            <v>0</v>
-          </cell>
-          <cell r="C192">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193">
-            <v>0</v>
-          </cell>
-          <cell r="C193">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194">
-            <v>0</v>
-          </cell>
-          <cell r="C194">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195">
-            <v>0</v>
-          </cell>
-          <cell r="C195">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196">
-            <v>0</v>
-          </cell>
-          <cell r="C196">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197">
-            <v>0</v>
-          </cell>
-          <cell r="C197">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198">
-            <v>0</v>
-          </cell>
-          <cell r="C198">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199">
-            <v>0</v>
-          </cell>
-          <cell r="C199">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200">
-            <v>0</v>
-          </cell>
-          <cell r="C200">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201">
-            <v>0</v>
-          </cell>
-          <cell r="C201">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="B202">
-            <v>0</v>
-          </cell>
-          <cell r="C202">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="B203">
-            <v>0</v>
-          </cell>
-          <cell r="C203">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204">
-            <v>0</v>
-          </cell>
-          <cell r="C204">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205">
-            <v>0</v>
-          </cell>
-          <cell r="C205">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206">
-            <v>0</v>
-          </cell>
-          <cell r="C206">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207">
-            <v>0</v>
-          </cell>
-          <cell r="C207">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208">
-            <v>0</v>
-          </cell>
-          <cell r="C208">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209">
-            <v>0</v>
-          </cell>
-          <cell r="C209">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="B210">
-            <v>0</v>
-          </cell>
-          <cell r="C210">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="B211">
-            <v>0</v>
-          </cell>
-          <cell r="C211">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="B212">
-            <v>0</v>
-          </cell>
-          <cell r="C212">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="B213">
-            <v>0</v>
-          </cell>
-          <cell r="C213">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="B214">
-            <v>0</v>
-          </cell>
-          <cell r="C214">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215">
-            <v>0</v>
-          </cell>
-          <cell r="C215">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216">
-            <v>0</v>
-          </cell>
-          <cell r="C216">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217">
-            <v>3</v>
-          </cell>
-          <cell r="C217">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="B218">
-            <v>3</v>
-          </cell>
-          <cell r="C218">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="B219">
-            <v>3</v>
-          </cell>
-          <cell r="C219">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="B220">
-            <v>3</v>
-          </cell>
-          <cell r="C220">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="B221">
-            <v>3</v>
-          </cell>
-          <cell r="C221">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="B222">
-            <v>3</v>
-          </cell>
-          <cell r="C222">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="B223">
-            <v>3</v>
-          </cell>
-          <cell r="C223">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="B224">
-            <v>3</v>
-          </cell>
-          <cell r="C224">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="B225">
-            <v>3</v>
-          </cell>
-          <cell r="C225">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="B226">
-            <v>3</v>
-          </cell>
-          <cell r="C226">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="B227">
-            <v>3</v>
-          </cell>
-          <cell r="C227">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="B228">
-            <v>3</v>
-          </cell>
-          <cell r="C228">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="B229">
-            <v>3</v>
-          </cell>
-          <cell r="C229">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="B230">
-            <v>3</v>
-          </cell>
-          <cell r="C230">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="B231">
-            <v>3</v>
-          </cell>
-          <cell r="C231">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="B232">
-            <v>3</v>
-          </cell>
-          <cell r="C232">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="B233">
-            <v>3</v>
-          </cell>
-          <cell r="C233">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="B234">
-            <v>3</v>
-          </cell>
-          <cell r="C234">
-            <v>95</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="B235">
-            <v>3</v>
-          </cell>
-          <cell r="C235">
-            <v>187</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="B236">
-            <v>3</v>
-          </cell>
-          <cell r="C236">
-            <v>187</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="B237">
-            <v>6</v>
-          </cell>
-          <cell r="C237">
-            <v>197</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="B238">
-            <v>6</v>
-          </cell>
-          <cell r="C238">
-            <v>197</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="B239">
-            <v>6</v>
-          </cell>
-          <cell r="C239">
-            <v>193</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="B240">
-            <v>6</v>
-          </cell>
-          <cell r="C240">
-            <v>193</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="B241">
-            <v>6</v>
-          </cell>
-          <cell r="C241">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="B242">
-            <v>6</v>
-          </cell>
-          <cell r="C242">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="B243">
-            <v>6</v>
-          </cell>
-          <cell r="C243">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="B244">
-            <v>6</v>
-          </cell>
-          <cell r="C244">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="B245">
-            <v>6</v>
-          </cell>
-          <cell r="C245">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="B246">
-            <v>6</v>
-          </cell>
-          <cell r="C246">
-            <v>190</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="B247">
-            <v>6</v>
-          </cell>
-          <cell r="C247">
-            <v>181</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="B248">
-            <v>6</v>
-          </cell>
-          <cell r="C248">
-            <v>181</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="B249">
-            <v>3</v>
-          </cell>
-          <cell r="C249">
-            <v>292</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="B250">
-            <v>3</v>
-          </cell>
-          <cell r="C250">
-            <v>292</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="B251">
-            <v>3</v>
-          </cell>
-          <cell r="C251">
-            <v>283</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="B252">
-            <v>3</v>
-          </cell>
-          <cell r="C252">
-            <v>283</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="B253">
-            <v>3</v>
-          </cell>
-          <cell r="C253">
-            <v>292</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="B254">
-            <v>3</v>
-          </cell>
-          <cell r="C254">
-            <v>292</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="B255">
-            <v>0</v>
-          </cell>
-          <cell r="C255">
-            <v>283</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="B256">
-            <v>0</v>
-          </cell>
-          <cell r="C256">
-            <v>283</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="B257">
-            <v>3</v>
-          </cell>
-          <cell r="C257">
-            <v>289</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="B258">
-            <v>3</v>
-          </cell>
-          <cell r="C258">
-            <v>289</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="B259">
-            <v>0</v>
-          </cell>
-          <cell r="C259">
-            <v>375</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="B260">
-            <v>0</v>
-          </cell>
-          <cell r="C260">
-            <v>375</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="B261">
-            <v>0</v>
-          </cell>
-          <cell r="C261">
-            <v>375</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="B262">
-            <v>0</v>
-          </cell>
-          <cell r="C262">
-            <v>375</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="B263">
-            <v>0</v>
-          </cell>
-          <cell r="C263">
-            <v>375</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="B264">
-            <v>0</v>
-          </cell>
-          <cell r="C264">
-            <v>375</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="B265">
-            <v>0</v>
-          </cell>
-          <cell r="C265">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="B266">
-            <v>0</v>
-          </cell>
-          <cell r="C266">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="B267">
-            <v>0</v>
-          </cell>
-          <cell r="C267">
-            <v>485</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="B268">
-            <v>0</v>
-          </cell>
-          <cell r="C268">
-            <v>485</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="B269">
-            <v>0</v>
-          </cell>
-          <cell r="C269">
-            <v>485</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="B270">
-            <v>0</v>
-          </cell>
-          <cell r="C270">
-            <v>485</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="B271">
-            <v>0</v>
-          </cell>
-          <cell r="C271">
-            <v>476</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="B272">
-            <v>0</v>
-          </cell>
-          <cell r="C272">
-            <v>476</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="B273">
-            <v>0</v>
-          </cell>
-          <cell r="C273">
-            <v>485</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="B274">
-            <v>0</v>
-          </cell>
-          <cell r="C274">
-            <v>485</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="B275">
-            <v>0</v>
-          </cell>
-          <cell r="C275">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="B276">
-            <v>0</v>
-          </cell>
-          <cell r="C276">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="B277">
-            <v>0</v>
-          </cell>
-          <cell r="C277">
-            <v>581</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="B278">
-            <v>0</v>
-          </cell>
-          <cell r="C278">
-            <v>581</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="B279">
-            <v>0</v>
-          </cell>
-          <cell r="C279">
-            <v>581</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="B280">
-            <v>0</v>
-          </cell>
-          <cell r="C280">
-            <v>581</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="B281">
-            <v>0</v>
-          </cell>
-          <cell r="C281">
-            <v>578</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="B282">
-            <v>0</v>
-          </cell>
-          <cell r="C282">
-            <v>578</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="B283">
-            <v>0</v>
-          </cell>
-          <cell r="C283">
-            <v>575</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="B284">
-            <v>0</v>
-          </cell>
-          <cell r="C284">
-            <v>575</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="B285">
-            <v>0</v>
-          </cell>
-          <cell r="C285">
-            <v>682</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="B286">
-            <v>0</v>
-          </cell>
-          <cell r="C286">
-            <v>682</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="B287">
-            <v>0</v>
-          </cell>
-          <cell r="C287">
-            <v>679</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="B288">
-            <v>0</v>
-          </cell>
-          <cell r="C288">
-            <v>679</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="B289">
-            <v>0</v>
-          </cell>
-          <cell r="C289">
-            <v>679</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="B290">
-            <v>0</v>
-          </cell>
-          <cell r="C290">
-            <v>679</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="B291">
-            <v>0</v>
-          </cell>
-          <cell r="C291">
-            <v>676</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="B292">
-            <v>0</v>
-          </cell>
-          <cell r="C292">
-            <v>676</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="B293">
-            <v>0</v>
-          </cell>
-          <cell r="C293">
-            <v>679</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="B294">
-            <v>0</v>
-          </cell>
-          <cell r="C294">
-            <v>679</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="B295">
-            <v>0</v>
-          </cell>
-          <cell r="C295">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="B296">
-            <v>0</v>
-          </cell>
-          <cell r="C296">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="B297">
-            <v>0</v>
-          </cell>
-          <cell r="C297">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="B298">
-            <v>0</v>
-          </cell>
-          <cell r="C298">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="B299">
-            <v>0</v>
-          </cell>
-          <cell r="C299">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="B300">
-            <v>0</v>
-          </cell>
-          <cell r="C300">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="B301">
-            <v>0</v>
-          </cell>
-          <cell r="C301">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="B302">
-            <v>0</v>
-          </cell>
-          <cell r="C302">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="B303">
-            <v>0</v>
-          </cell>
-          <cell r="C303">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="B304">
-            <v>0</v>
-          </cell>
-          <cell r="C304">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="B305">
-            <v>0</v>
-          </cell>
-          <cell r="C305">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="B306">
-            <v>0</v>
-          </cell>
-          <cell r="C306">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="B307">
-            <v>512</v>
-          </cell>
-          <cell r="C307">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="B308">
-            <v>512</v>
-          </cell>
-          <cell r="C308">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="B309">
-            <v>512</v>
-          </cell>
-          <cell r="C309">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="B310">
-            <v>512</v>
-          </cell>
-          <cell r="C310">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="B311">
-            <v>512</v>
-          </cell>
-          <cell r="C311">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="B312">
-            <v>512</v>
-          </cell>
-          <cell r="C312">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="B313">
-            <v>512</v>
-          </cell>
-          <cell r="C313">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="B314">
-            <v>512</v>
-          </cell>
-          <cell r="C314">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="B315">
-            <v>512</v>
-          </cell>
-          <cell r="C315">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="B316">
-            <v>512</v>
-          </cell>
-          <cell r="C316">
-            <v>108</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="B317">
-            <v>515</v>
-          </cell>
-          <cell r="C317">
-            <v>206</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="B318">
-            <v>515</v>
-          </cell>
-          <cell r="C318">
-            <v>206</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="B319">
-            <v>512</v>
-          </cell>
-          <cell r="C319">
-            <v>203</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="B320">
-            <v>512</v>
-          </cell>
-          <cell r="C320">
-            <v>203</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="B321">
-            <v>515</v>
-          </cell>
-          <cell r="C321">
-            <v>203</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="B322">
-            <v>515</v>
-          </cell>
-          <cell r="C322">
-            <v>203</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="B323">
-            <v>509</v>
-          </cell>
-          <cell r="C323">
-            <v>293</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="B324">
-            <v>509</v>
-          </cell>
-          <cell r="C324">
-            <v>293</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="B325">
-            <v>509</v>
-          </cell>
-          <cell r="C325">
-            <v>293</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="B326">
-            <v>509</v>
-          </cell>
-          <cell r="C326">
-            <v>293</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="B327">
-            <v>509</v>
-          </cell>
-          <cell r="C327">
-            <v>293</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="B328">
-            <v>509</v>
-          </cell>
-          <cell r="C328">
-            <v>293</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="B329">
-            <v>509</v>
-          </cell>
-          <cell r="C329">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="B330">
-            <v>509</v>
-          </cell>
-          <cell r="C330">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="B331">
-            <v>509</v>
-          </cell>
-          <cell r="C331">
-            <v>386</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="B332">
-            <v>509</v>
-          </cell>
-          <cell r="C332">
-            <v>386</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="B333">
-            <v>509</v>
-          </cell>
-          <cell r="C333">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="B334">
-            <v>509</v>
-          </cell>
-          <cell r="C334">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="B335">
-            <v>509</v>
-          </cell>
-          <cell r="C335">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="B336">
-            <v>509</v>
-          </cell>
-          <cell r="C336">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="B337">
-            <v>509</v>
-          </cell>
-          <cell r="C337">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="B338">
-            <v>509</v>
-          </cell>
-          <cell r="C338">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="B339">
-            <v>509</v>
-          </cell>
-          <cell r="C339">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="B340">
-            <v>509</v>
-          </cell>
-          <cell r="C340">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="B341">
-            <v>509</v>
-          </cell>
-          <cell r="C341">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="B342">
-            <v>509</v>
-          </cell>
-          <cell r="C342">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="B343">
-            <v>512</v>
-          </cell>
-          <cell r="C343">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="B344">
-            <v>512</v>
-          </cell>
-          <cell r="C344">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="B345">
-            <v>512</v>
-          </cell>
-          <cell r="C345">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="B346">
-            <v>512</v>
-          </cell>
-          <cell r="C346">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="B347">
-            <v>512</v>
-          </cell>
-          <cell r="C347">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="B348">
-            <v>512</v>
-          </cell>
-          <cell r="C348">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="B349">
-            <v>512</v>
-          </cell>
-          <cell r="C349">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="B350">
-            <v>512</v>
-          </cell>
-          <cell r="C350">
-            <v>469</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="B351">
-            <v>509</v>
-          </cell>
-          <cell r="C351">
-            <v>574</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="B352">
-            <v>509</v>
-          </cell>
-          <cell r="C352">
-            <v>574</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="B353">
-            <v>512</v>
-          </cell>
-          <cell r="C353">
-            <v>574</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="B354">
-            <v>512</v>
-          </cell>
-          <cell r="C354">
-            <v>574</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="B355">
-            <v>512</v>
-          </cell>
-          <cell r="C355">
-            <v>571</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="B356">
-            <v>512</v>
-          </cell>
-          <cell r="C356">
-            <v>571</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="B357">
-            <v>512</v>
-          </cell>
-          <cell r="C357">
-            <v>571</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="B358">
-            <v>512</v>
-          </cell>
-          <cell r="C358">
-            <v>571</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="B359">
-            <v>512</v>
-          </cell>
-          <cell r="C359">
-            <v>571</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="B360">
-            <v>512</v>
-          </cell>
-          <cell r="C360">
-            <v>571</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="B361">
-            <v>509</v>
-          </cell>
-          <cell r="C361">
-            <v>567</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="B362">
-            <v>509</v>
-          </cell>
-          <cell r="C362">
-            <v>567</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="B363">
-            <v>512</v>
-          </cell>
-          <cell r="C363">
-            <v>666</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="B364">
-            <v>512</v>
-          </cell>
-          <cell r="C364">
-            <v>666</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="B365">
-            <v>515</v>
-          </cell>
-          <cell r="C365">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="B366">
-            <v>515</v>
-          </cell>
-          <cell r="C366">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="B367">
-            <v>515</v>
-          </cell>
-          <cell r="C367">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="B368">
-            <v>515</v>
-          </cell>
-          <cell r="C368">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="B369">
-            <v>515</v>
-          </cell>
-          <cell r="C369">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="B370">
-            <v>515</v>
-          </cell>
-          <cell r="C370">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="B371">
-            <v>515</v>
-          </cell>
-          <cell r="C371">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="B372">
-            <v>515</v>
-          </cell>
-          <cell r="C372">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="B373">
-            <v>515</v>
-          </cell>
-          <cell r="C373">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="B374">
-            <v>515</v>
-          </cell>
-          <cell r="C374">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="B375">
-            <v>515</v>
-          </cell>
-          <cell r="C375">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="B376">
-            <v>515</v>
-          </cell>
-          <cell r="C376">
-            <v>667</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="B377">
-            <v>0</v>
-          </cell>
-          <cell r="C377">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="B378">
-            <v>0</v>
-          </cell>
-          <cell r="C378">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="B379">
-            <v>0</v>
-          </cell>
-          <cell r="C379">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="B380">
-            <v>0</v>
-          </cell>
-          <cell r="C380">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="B381">
-            <v>0</v>
-          </cell>
-          <cell r="C381">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="B382">
-            <v>0</v>
-          </cell>
-          <cell r="C382">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="B383">
-            <v>0</v>
-          </cell>
-          <cell r="C383">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="B384">
-            <v>0</v>
-          </cell>
-          <cell r="C384">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="B385">
-            <v>0</v>
-          </cell>
-          <cell r="C385">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="B386">
-            <v>0</v>
-          </cell>
-          <cell r="C386">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="B387">
-            <v>0</v>
-          </cell>
-          <cell r="C387">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="B388">
-            <v>0</v>
-          </cell>
-          <cell r="C388">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="B389">
-            <v>0</v>
-          </cell>
-          <cell r="C389">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="B390">
-            <v>0</v>
-          </cell>
-          <cell r="C390">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="B391">
-            <v>0</v>
-          </cell>
-          <cell r="C391">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="B392">
-            <v>0</v>
-          </cell>
-          <cell r="C392">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="B393">
-            <v>0</v>
-          </cell>
-          <cell r="C393">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="B394">
-            <v>0</v>
-          </cell>
-          <cell r="C394">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="B395">
-            <v>0</v>
-          </cell>
-          <cell r="C395">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="B396">
-            <v>0</v>
-          </cell>
-          <cell r="C396">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="B397">
-            <v>0</v>
-          </cell>
-          <cell r="C397">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="B398">
-            <v>0</v>
-          </cell>
-          <cell r="C398">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="B399">
-            <v>0</v>
-          </cell>
-          <cell r="C399">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="B400">
-            <v>0</v>
-          </cell>
-          <cell r="C400">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="B401">
-            <v>0</v>
-          </cell>
-          <cell r="C401">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="B402">
-            <v>0</v>
-          </cell>
-          <cell r="C402">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="B403">
-            <v>0</v>
-          </cell>
-          <cell r="C403">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="B404">
-            <v>0</v>
-          </cell>
-          <cell r="C404">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="B405">
-            <v>0</v>
-          </cell>
-          <cell r="C405">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="B406">
-            <v>0</v>
-          </cell>
-          <cell r="C406">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="B407">
-            <v>0</v>
-          </cell>
-          <cell r="C407">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="B408">
-            <v>0</v>
-          </cell>
-          <cell r="C408">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="B409">
-            <v>0</v>
-          </cell>
-          <cell r="C409">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="B410">
-            <v>0</v>
-          </cell>
-          <cell r="C410">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="B411">
-            <v>0</v>
-          </cell>
-          <cell r="C411">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="B412">
-            <v>0</v>
-          </cell>
-          <cell r="C412">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="B413">
-            <v>0</v>
-          </cell>
-          <cell r="C413">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="B414">
-            <v>0</v>
-          </cell>
-          <cell r="C414">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="B415">
-            <v>0</v>
-          </cell>
-          <cell r="C415">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="B416">
-            <v>0</v>
-          </cell>
-          <cell r="C416">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="B417">
-            <v>0</v>
-          </cell>
-          <cell r="C417">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="B418">
-            <v>0</v>
-          </cell>
-          <cell r="C418">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="B419">
-            <v>0</v>
-          </cell>
-          <cell r="C419">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="B420">
-            <v>0</v>
-          </cell>
-          <cell r="C420">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="B421">
-            <v>0</v>
-          </cell>
-          <cell r="C421">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="B422">
-            <v>0</v>
-          </cell>
-          <cell r="C422">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="B423">
-            <v>0</v>
-          </cell>
-          <cell r="C423">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="B424">
-            <v>0</v>
-          </cell>
-          <cell r="C424">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="B425">
-            <v>0</v>
-          </cell>
-          <cell r="C425">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="B426">
-            <v>0</v>
-          </cell>
-          <cell r="C426">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="B427">
-            <v>0</v>
-          </cell>
-          <cell r="C427">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="B428">
-            <v>0</v>
-          </cell>
-          <cell r="C428">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="B429">
-            <v>0</v>
-          </cell>
-          <cell r="C429">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="B430">
-            <v>0</v>
-          </cell>
-          <cell r="C430">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="B431">
-            <v>0</v>
-          </cell>
-          <cell r="C431">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="B432">
-            <v>0</v>
-          </cell>
-          <cell r="C432">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="B433">
-            <v>0</v>
-          </cell>
-          <cell r="C433">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="B434">
-            <v>0</v>
-          </cell>
-          <cell r="C434">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="B435">
-            <v>0</v>
-          </cell>
-          <cell r="C435">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="B436">
-            <v>0</v>
-          </cell>
-          <cell r="C436">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="B437">
-            <v>0</v>
-          </cell>
-          <cell r="C437">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="B438">
-            <v>0</v>
-          </cell>
-          <cell r="C438">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="B439">
-            <v>0</v>
-          </cell>
-          <cell r="C439">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="B440">
-            <v>0</v>
-          </cell>
-          <cell r="C440">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="B441">
-            <v>0</v>
-          </cell>
-          <cell r="C441">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="B442">
-            <v>0</v>
-          </cell>
-          <cell r="C442">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="B443">
-            <v>0</v>
-          </cell>
-          <cell r="C443">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="B444">
-            <v>0</v>
-          </cell>
-          <cell r="C444">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="B445">
-            <v>0</v>
-          </cell>
-          <cell r="C445">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="B446">
-            <v>0</v>
-          </cell>
-          <cell r="C446">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="B447">
-            <v>0</v>
-          </cell>
-          <cell r="C447">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="B448">
-            <v>0</v>
-          </cell>
-          <cell r="C448">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="B449">
-            <v>0</v>
-          </cell>
-          <cell r="C449">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="B450">
-            <v>0</v>
-          </cell>
-          <cell r="C450">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="B451">
-            <v>0</v>
-          </cell>
-          <cell r="C451">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="B452">
-            <v>0</v>
-          </cell>
-          <cell r="C452">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="B453">
-            <v>0</v>
-          </cell>
-          <cell r="C453">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="B454">
-            <v>0</v>
-          </cell>
-          <cell r="C454">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="B455">
-            <v>0</v>
-          </cell>
-          <cell r="C455">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="B456">
-            <v>0</v>
-          </cell>
-          <cell r="C456">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="B457">
-            <v>0</v>
-          </cell>
-          <cell r="C457">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="B458">
-            <v>0</v>
-          </cell>
-          <cell r="C458">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="B459">
-            <v>0</v>
-          </cell>
-          <cell r="C459">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="B460">
-            <v>0</v>
-          </cell>
-          <cell r="C460">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="B461">
-            <v>0</v>
-          </cell>
-          <cell r="C461">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="B462">
-            <v>0</v>
-          </cell>
-          <cell r="C462">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="B463">
-            <v>3</v>
-          </cell>
-          <cell r="C463">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="B464">
-            <v>3</v>
-          </cell>
-          <cell r="C464">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="B465">
-            <v>3</v>
-          </cell>
-          <cell r="C465">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="B466">
-            <v>3</v>
-          </cell>
-          <cell r="C466">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="B467">
-            <v>3</v>
-          </cell>
-          <cell r="C467">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="B468">
-            <v>3</v>
-          </cell>
-          <cell r="C468">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="B469">
-            <v>3</v>
-          </cell>
-          <cell r="C469">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="470">
-          <cell r="B470">
-            <v>3</v>
-          </cell>
-          <cell r="C470">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="B471">
-            <v>3</v>
-          </cell>
-          <cell r="C471">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="472">
-          <cell r="B472">
-            <v>3</v>
-          </cell>
-          <cell r="C472">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="B473">
-            <v>126</v>
-          </cell>
-          <cell r="C473">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="B474">
-            <v>126</v>
-          </cell>
-          <cell r="C474">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="B475">
-            <v>126</v>
-          </cell>
-          <cell r="C475">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="476">
-          <cell r="B476">
-            <v>126</v>
-          </cell>
-          <cell r="C476">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="B477">
-            <v>129</v>
-          </cell>
-          <cell r="C477">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="B478">
-            <v>129</v>
-          </cell>
-          <cell r="C478">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="B479">
-            <v>259</v>
-          </cell>
-          <cell r="C479">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="B480">
-            <v>259</v>
-          </cell>
-          <cell r="C480">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="B481">
-            <v>259</v>
-          </cell>
-          <cell r="C481">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="482">
-          <cell r="B482">
-            <v>259</v>
-          </cell>
-          <cell r="C482">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="B483">
-            <v>256</v>
-          </cell>
-          <cell r="C483">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="484">
-          <cell r="B484">
-            <v>256</v>
-          </cell>
-          <cell r="C484">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="B485">
-            <v>389</v>
-          </cell>
-          <cell r="C485">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="B486">
-            <v>389</v>
-          </cell>
-          <cell r="C486">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="B487">
-            <v>389</v>
-          </cell>
-          <cell r="C487">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="488">
-          <cell r="B488">
-            <v>389</v>
-          </cell>
-          <cell r="C488">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="489">
-          <cell r="B489">
-            <v>383</v>
-          </cell>
-          <cell r="C489">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="B490">
-            <v>383</v>
-          </cell>
-          <cell r="C490">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="491">
-          <cell r="B491">
-            <v>386</v>
-          </cell>
-          <cell r="C491">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="492">
-          <cell r="B492">
-            <v>386</v>
-          </cell>
-          <cell r="C492">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="493">
-          <cell r="B493">
-            <v>512</v>
-          </cell>
-          <cell r="C493">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="494">
-          <cell r="B494">
-            <v>512</v>
-          </cell>
-          <cell r="C494">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="495">
-          <cell r="B495">
-            <v>512</v>
-          </cell>
-          <cell r="C495">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="496">
-          <cell r="B496">
-            <v>512</v>
-          </cell>
-          <cell r="C496">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="B497">
-            <v>512</v>
-          </cell>
-          <cell r="C497">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="498">
-          <cell r="B498">
-            <v>512</v>
-          </cell>
-          <cell r="C498">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="499">
-          <cell r="B499">
-            <v>512</v>
-          </cell>
-          <cell r="C499">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="500">
-          <cell r="B500">
-            <v>512</v>
-          </cell>
-          <cell r="C500">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="501">
-          <cell r="B501">
-            <v>515</v>
-          </cell>
-          <cell r="C501">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="502">
-          <cell r="B502">
-            <v>515</v>
-          </cell>
-          <cell r="C502">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="503">
-          <cell r="B503">
-            <v>638</v>
-          </cell>
-          <cell r="C503">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="504">
-          <cell r="B504">
-            <v>638</v>
-          </cell>
-          <cell r="C504">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="505">
-          <cell r="B505">
-            <v>638</v>
-          </cell>
-          <cell r="C505">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="506">
-          <cell r="B506">
-            <v>638</v>
-          </cell>
-          <cell r="C506">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="507">
-          <cell r="B507">
-            <v>638</v>
-          </cell>
-          <cell r="C507">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="508">
-          <cell r="B508">
-            <v>638</v>
-          </cell>
-          <cell r="C508">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="509">
-          <cell r="B509">
-            <v>638</v>
-          </cell>
-          <cell r="C509">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="510">
-          <cell r="B510">
-            <v>638</v>
-          </cell>
-          <cell r="C510">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="511">
-          <cell r="B511">
-            <v>638</v>
-          </cell>
-          <cell r="C511">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="512">
-          <cell r="B512">
-            <v>638</v>
-          </cell>
-          <cell r="C512">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="513">
-          <cell r="B513">
-            <v>765</v>
-          </cell>
-          <cell r="C513">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="514">
-          <cell r="B514">
-            <v>765</v>
-          </cell>
-          <cell r="C514">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="515">
-          <cell r="B515">
-            <v>765</v>
-          </cell>
-          <cell r="C515">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="516">
-          <cell r="B516">
-            <v>765</v>
-          </cell>
-          <cell r="C516">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="517">
-          <cell r="B517">
-            <v>768</v>
-          </cell>
-          <cell r="C517">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="518">
-          <cell r="B518">
-            <v>768</v>
-          </cell>
-          <cell r="C518">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="519">
-          <cell r="B519">
-            <v>768</v>
-          </cell>
-          <cell r="C519">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="520">
-          <cell r="B520">
-            <v>768</v>
-          </cell>
-          <cell r="C520">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="521">
-          <cell r="B521">
-            <v>895</v>
-          </cell>
-          <cell r="C521">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="522">
-          <cell r="B522">
-            <v>895</v>
-          </cell>
-          <cell r="C522">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="523">
-          <cell r="B523">
-            <v>895</v>
-          </cell>
-          <cell r="C523">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="524">
-          <cell r="B524">
-            <v>895</v>
-          </cell>
-          <cell r="C524">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="525">
-          <cell r="B525">
-            <v>895</v>
-          </cell>
-          <cell r="C525">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="526">
-          <cell r="B526">
-            <v>895</v>
-          </cell>
-          <cell r="C526">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="527">
-          <cell r="B527">
-            <v>895</v>
-          </cell>
-          <cell r="C527">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="528">
-          <cell r="B528">
-            <v>895</v>
-          </cell>
-          <cell r="C528">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="529">
-          <cell r="B529">
-            <v>895</v>
-          </cell>
-          <cell r="C529">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="530">
-          <cell r="B530">
-            <v>895</v>
-          </cell>
-          <cell r="C530">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="531">
-          <cell r="B531">
-            <v>0</v>
-          </cell>
-          <cell r="C531">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="532">
-          <cell r="B532">
-            <v>0</v>
-          </cell>
-          <cell r="C532">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="533">
-          <cell r="B533">
-            <v>0</v>
-          </cell>
-          <cell r="C533">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="534">
-          <cell r="B534">
-            <v>0</v>
-          </cell>
-          <cell r="C534">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="535">
-          <cell r="B535">
-            <v>0</v>
-          </cell>
-          <cell r="C535">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="536">
-          <cell r="B536">
-            <v>0</v>
-          </cell>
-          <cell r="C536">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="537">
-          <cell r="B537">
-            <v>0</v>
-          </cell>
-          <cell r="C537">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="538">
-          <cell r="B538">
-            <v>0</v>
-          </cell>
-          <cell r="C538">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="539">
-          <cell r="B539">
-            <v>0</v>
-          </cell>
-          <cell r="C539">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="540">
-          <cell r="B540">
-            <v>0</v>
-          </cell>
-          <cell r="C540">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="541">
-          <cell r="B541">
-            <v>0</v>
-          </cell>
-          <cell r="C541">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="542">
-          <cell r="B542">
-            <v>0</v>
-          </cell>
-          <cell r="C542">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="543">
-          <cell r="B543">
-            <v>0</v>
-          </cell>
-          <cell r="C543">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="544">
-          <cell r="B544">
-            <v>0</v>
-          </cell>
-          <cell r="C544">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="545">
-          <cell r="B545">
-            <v>0</v>
-          </cell>
-          <cell r="C545">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="546">
-          <cell r="B546">
-            <v>0</v>
-          </cell>
-          <cell r="C546">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="547">
-          <cell r="B547">
-            <v>0</v>
-          </cell>
-          <cell r="C547">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="548">
-          <cell r="B548">
-            <v>0</v>
-          </cell>
-          <cell r="C548">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="549">
-          <cell r="B549">
-            <v>0</v>
-          </cell>
-          <cell r="C549">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="550">
-          <cell r="B550">
-            <v>0</v>
-          </cell>
-          <cell r="C550">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="551">
-          <cell r="B551">
-            <v>0</v>
-          </cell>
-          <cell r="C551">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="552">
-          <cell r="B552">
-            <v>0</v>
-          </cell>
-          <cell r="C552">
-            <v>371</v>
-          </cell>
-        </row>
-        <row r="553">
-          <cell r="B553">
-            <v>129</v>
-          </cell>
-          <cell r="C553">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="554">
-          <cell r="B554">
-            <v>129</v>
-          </cell>
-          <cell r="C554">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="555">
-          <cell r="B555">
-            <v>129</v>
-          </cell>
-          <cell r="C555">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="556">
-          <cell r="B556">
-            <v>129</v>
-          </cell>
-          <cell r="C556">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="557">
-          <cell r="B557">
-            <v>129</v>
-          </cell>
-          <cell r="C557">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="558">
-          <cell r="B558">
-            <v>129</v>
-          </cell>
-          <cell r="C558">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="559">
-          <cell r="B559">
-            <v>129</v>
-          </cell>
-          <cell r="C559">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="560">
-          <cell r="B560">
-            <v>129</v>
-          </cell>
-          <cell r="C560">
-            <v>378</v>
-          </cell>
-        </row>
-        <row r="561">
-          <cell r="B561">
-            <v>255</v>
-          </cell>
-          <cell r="C561">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="562">
-          <cell r="B562">
-            <v>255</v>
-          </cell>
-          <cell r="C562">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="563">
-          <cell r="B563">
-            <v>255</v>
-          </cell>
-          <cell r="C563">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="564">
-          <cell r="B564">
-            <v>255</v>
-          </cell>
-          <cell r="C564">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="565">
-          <cell r="B565">
-            <v>255</v>
-          </cell>
-          <cell r="C565">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="566">
-          <cell r="B566">
-            <v>255</v>
-          </cell>
-          <cell r="C566">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="567">
-          <cell r="B567">
-            <v>255</v>
-          </cell>
-          <cell r="C567">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="568">
-          <cell r="B568">
-            <v>255</v>
-          </cell>
-          <cell r="C568">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="569">
-          <cell r="B569">
-            <v>255</v>
-          </cell>
-          <cell r="C569">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="570">
-          <cell r="B570">
-            <v>255</v>
-          </cell>
-          <cell r="C570">
-            <v>385</v>
-          </cell>
-        </row>
-        <row r="571">
-          <cell r="B571">
-            <v>385</v>
-          </cell>
-          <cell r="C571">
-            <v>379</v>
-          </cell>
-        </row>
-        <row r="572">
-          <cell r="B572">
-            <v>385</v>
-          </cell>
-          <cell r="C572">
-            <v>379</v>
-          </cell>
-        </row>
-        <row r="573">
-          <cell r="B573">
-            <v>385</v>
-          </cell>
-          <cell r="C573">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="574">
-          <cell r="B574">
-            <v>385</v>
-          </cell>
-          <cell r="C574">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="575">
-          <cell r="B575">
-            <v>385</v>
-          </cell>
-          <cell r="C575">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="576">
-          <cell r="B576">
-            <v>385</v>
-          </cell>
-          <cell r="C576">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="577">
-          <cell r="B577">
-            <v>385</v>
-          </cell>
-          <cell r="C577">
-            <v>379</v>
-          </cell>
-        </row>
-        <row r="578">
-          <cell r="B578">
-            <v>385</v>
-          </cell>
-          <cell r="C578">
-            <v>379</v>
-          </cell>
-        </row>
-        <row r="579">
-          <cell r="B579">
-            <v>385</v>
-          </cell>
-          <cell r="C579">
-            <v>379</v>
-          </cell>
-        </row>
-        <row r="580">
-          <cell r="B580">
-            <v>385</v>
-          </cell>
-          <cell r="C580">
-            <v>379</v>
-          </cell>
-        </row>
-        <row r="581">
-          <cell r="B581">
-            <v>509</v>
-          </cell>
-          <cell r="C581">
-            <v>395</v>
-          </cell>
-        </row>
-        <row r="582">
-          <cell r="B582">
-            <v>509</v>
-          </cell>
-          <cell r="C582">
-            <v>395</v>
-          </cell>
-        </row>
-        <row r="583">
-          <cell r="B583">
-            <v>509</v>
-          </cell>
-          <cell r="C583">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="584">
-          <cell r="B584">
-            <v>509</v>
-          </cell>
-          <cell r="C584">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="585">
-          <cell r="B585">
-            <v>509</v>
-          </cell>
-          <cell r="C585">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="586">
-          <cell r="B586">
-            <v>509</v>
-          </cell>
-          <cell r="C586">
-            <v>383</v>
-          </cell>
-        </row>
-        <row r="587">
-          <cell r="B587">
-            <v>506</v>
-          </cell>
-          <cell r="C587">
-            <v>386</v>
-          </cell>
-        </row>
-        <row r="588">
-          <cell r="B588">
-            <v>506</v>
-          </cell>
-          <cell r="C588">
-            <v>386</v>
-          </cell>
-        </row>
-        <row r="589">
-          <cell r="B589">
-            <v>509</v>
-          </cell>
-          <cell r="C589">
-            <v>386</v>
-          </cell>
-        </row>
-        <row r="590">
-          <cell r="B590">
-            <v>509</v>
-          </cell>
-          <cell r="C590">
-            <v>386</v>
-          </cell>
-        </row>
-        <row r="591">
-          <cell r="B591">
-            <v>636</v>
-          </cell>
-          <cell r="C591">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="592">
-          <cell r="B592">
-            <v>636</v>
-          </cell>
-          <cell r="C592">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="593">
-          <cell r="B593">
-            <v>634</v>
-          </cell>
-          <cell r="C593">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="594">
-          <cell r="B594">
-            <v>634</v>
-          </cell>
-          <cell r="C594">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="595">
-          <cell r="B595">
-            <v>634</v>
-          </cell>
-          <cell r="C595">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="596">
-          <cell r="B596">
-            <v>634</v>
-          </cell>
-          <cell r="C596">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="597">
-          <cell r="B597">
-            <v>762</v>
-          </cell>
-          <cell r="C597">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="598">
-          <cell r="B598">
-            <v>765</v>
-          </cell>
-          <cell r="C598">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="599">
-          <cell r="B599">
-            <v>765</v>
-          </cell>
-          <cell r="C599">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="600">
-          <cell r="B600">
-            <v>765</v>
-          </cell>
-          <cell r="C600">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="601">
-          <cell r="B601">
-            <v>765</v>
-          </cell>
-          <cell r="C601">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="602">
-          <cell r="B602">
-            <v>765</v>
-          </cell>
-          <cell r="C602">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="603">
-          <cell r="B603">
-            <v>765</v>
-          </cell>
-          <cell r="C603">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="604">
-          <cell r="B604">
-            <v>765</v>
-          </cell>
-          <cell r="C604">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="605">
-          <cell r="B605">
-            <v>765</v>
-          </cell>
-          <cell r="C605">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="606">
-          <cell r="B606">
-            <v>765</v>
-          </cell>
-          <cell r="C606">
-            <v>397</v>
-          </cell>
-        </row>
-        <row r="607">
-          <cell r="B607">
-            <v>895</v>
-          </cell>
-          <cell r="C607">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="608">
-          <cell r="B608">
-            <v>895</v>
-          </cell>
-          <cell r="C608">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="609">
-          <cell r="B609">
-            <v>895</v>
-          </cell>
-          <cell r="C609">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="610">
-          <cell r="B610">
-            <v>895</v>
-          </cell>
-          <cell r="C610">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="611">
-          <cell r="B611">
-            <v>895</v>
-          </cell>
-          <cell r="C611">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="612">
-          <cell r="B612">
-            <v>895</v>
-          </cell>
-          <cell r="C612">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="613">
-          <cell r="B613">
-            <v>895</v>
-          </cell>
-          <cell r="C613">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="614">
-          <cell r="B614">
-            <v>895</v>
-          </cell>
-          <cell r="C614">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="615">
-          <cell r="B615">
-            <v>895</v>
-          </cell>
-          <cell r="C615">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="616">
-          <cell r="B616">
-            <v>895</v>
-          </cell>
-          <cell r="C616">
-            <v>401</v>
-          </cell>
-        </row>
-        <row r="617">
-          <cell r="B617">
-            <v>0</v>
-          </cell>
-          <cell r="C617">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="618">
-          <cell r="B618">
-            <v>0</v>
-          </cell>
-          <cell r="C618">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="619">
-          <cell r="B619">
-            <v>0</v>
-          </cell>
-          <cell r="C619">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="620">
-          <cell r="B620">
-            <v>0</v>
-          </cell>
-          <cell r="C620">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="621">
-          <cell r="B621">
-            <v>0</v>
-          </cell>
-          <cell r="C621">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="622">
-          <cell r="B622">
-            <v>0</v>
-          </cell>
-          <cell r="C622">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="623">
-          <cell r="B623">
-            <v>0</v>
-          </cell>
-          <cell r="C623">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="624">
-          <cell r="B624">
-            <v>0</v>
-          </cell>
-          <cell r="C624">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="625">
-          <cell r="B625">
-            <v>0</v>
-          </cell>
-          <cell r="C625">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="626">
-          <cell r="B626">
-            <v>0</v>
-          </cell>
-          <cell r="C626">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="627">
-          <cell r="B627">
-            <v>0</v>
-          </cell>
-          <cell r="C627">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="628">
-          <cell r="B628">
-            <v>0</v>
-          </cell>
-          <cell r="C628">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="629">
-          <cell r="B629">
-            <v>0</v>
-          </cell>
-          <cell r="C629">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="630">
-          <cell r="B630">
-            <v>0</v>
-          </cell>
-          <cell r="C630">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="631">
-          <cell r="B631">
-            <v>0</v>
-          </cell>
-          <cell r="C631">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="632">
-          <cell r="B632">
-            <v>0</v>
-          </cell>
-          <cell r="C632">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="633">
-          <cell r="B633">
-            <v>0</v>
-          </cell>
-          <cell r="C633">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="634">
-          <cell r="B634">
-            <v>0</v>
-          </cell>
-          <cell r="C634">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="635">
-          <cell r="B635">
-            <v>0</v>
-          </cell>
-          <cell r="C635">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="636">
-          <cell r="B636">
-            <v>0</v>
-          </cell>
-          <cell r="C636">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="637">
-          <cell r="B637">
-            <v>0</v>
-          </cell>
-          <cell r="C637">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="638">
-          <cell r="B638">
-            <v>0</v>
-          </cell>
-          <cell r="C638">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="639">
-          <cell r="B639">
-            <v>0</v>
-          </cell>
-          <cell r="C639">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="640">
-          <cell r="B640">
-            <v>0</v>
-          </cell>
-          <cell r="C640">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="641">
-          <cell r="B641">
-            <v>0</v>
-          </cell>
-          <cell r="C641">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="642">
-          <cell r="B642">
-            <v>0</v>
-          </cell>
-          <cell r="C642">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="643">
-          <cell r="B643">
-            <v>0</v>
-          </cell>
-          <cell r="C643">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="644">
-          <cell r="B644">
-            <v>0</v>
-          </cell>
-          <cell r="C644">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="645">
-          <cell r="B645">
-            <v>0</v>
-          </cell>
-          <cell r="C645">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="646">
-          <cell r="B646">
-            <v>0</v>
-          </cell>
-          <cell r="C646">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="647">
-          <cell r="B647">
-            <v>0</v>
-          </cell>
-          <cell r="C647">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="648">
-          <cell r="B648">
-            <v>0</v>
-          </cell>
-          <cell r="C648">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="649">
-          <cell r="B649">
-            <v>0</v>
-          </cell>
-          <cell r="C649">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="650">
-          <cell r="B650">
-            <v>0</v>
-          </cell>
-          <cell r="C650">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="651">
-          <cell r="B651">
-            <v>0</v>
-          </cell>
-          <cell r="C651">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="652">
-          <cell r="B652">
-            <v>0</v>
-          </cell>
-          <cell r="C652">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="653">
-          <cell r="B653">
-            <v>0</v>
-          </cell>
-          <cell r="C653">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="654">
-          <cell r="B654">
-            <v>0</v>
-          </cell>
-          <cell r="C654">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="655">
-          <cell r="B655">
-            <v>0</v>
-          </cell>
-          <cell r="C655">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="656">
-          <cell r="B656">
-            <v>0</v>
-          </cell>
-          <cell r="C656">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="657">
-          <cell r="B657">
-            <v>0</v>
-          </cell>
-          <cell r="C657">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="658">
-          <cell r="B658">
-            <v>0</v>
-          </cell>
-          <cell r="C658">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="659">
-          <cell r="B659">
-            <v>0</v>
-          </cell>
-          <cell r="C659">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="660">
-          <cell r="B660">
-            <v>0</v>
-          </cell>
-          <cell r="C660">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="661">
-          <cell r="B661">
-            <v>0</v>
-          </cell>
-          <cell r="C661">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="662">
-          <cell r="B662">
-            <v>0</v>
-          </cell>
-          <cell r="C662">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="663">
-          <cell r="B663">
-            <v>0</v>
-          </cell>
-          <cell r="C663">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="664">
-          <cell r="B664">
-            <v>0</v>
-          </cell>
-          <cell r="C664">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="665">
-          <cell r="B665">
-            <v>0</v>
-          </cell>
-          <cell r="C665">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="666">
-          <cell r="B666">
-            <v>0</v>
-          </cell>
-          <cell r="C666">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="667">
-          <cell r="B667">
-            <v>0</v>
-          </cell>
-          <cell r="C667">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="668">
-          <cell r="B668">
-            <v>0</v>
-          </cell>
-          <cell r="C668">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="669">
-          <cell r="B669">
-            <v>0</v>
-          </cell>
-          <cell r="C669">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="670">
-          <cell r="B670">
-            <v>0</v>
-          </cell>
-          <cell r="C670">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="671">
-          <cell r="B671">
-            <v>0</v>
-          </cell>
-          <cell r="C671">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="672">
-          <cell r="B672">
-            <v>0</v>
-          </cell>
-          <cell r="C672">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="673">
-          <cell r="B673">
-            <v>0</v>
-          </cell>
-          <cell r="C673">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="674">
-          <cell r="B674">
-            <v>0</v>
-          </cell>
-          <cell r="C674">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="675">
-          <cell r="B675">
-            <v>0</v>
-          </cell>
-          <cell r="C675">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="676">
-          <cell r="B676">
-            <v>0</v>
-          </cell>
-          <cell r="C676">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="677">
-          <cell r="B677">
-            <v>0</v>
-          </cell>
-          <cell r="C677">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="678">
-          <cell r="B678">
-            <v>0</v>
-          </cell>
-          <cell r="C678">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="679">
-          <cell r="B679">
-            <v>0</v>
-          </cell>
-          <cell r="C679">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="680">
-          <cell r="B680">
-            <v>0</v>
-          </cell>
-          <cell r="C680">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="681">
-          <cell r="B681">
-            <v>0</v>
-          </cell>
-          <cell r="C681">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="682">
-          <cell r="B682">
-            <v>0</v>
-          </cell>
-          <cell r="C682">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="683">
-          <cell r="B683">
-            <v>0</v>
-          </cell>
-          <cell r="C683">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="684">
-          <cell r="B684">
-            <v>0</v>
-          </cell>
-          <cell r="C684">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12321,15 +6342,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E806"/>
+  <dimension ref="A1:G806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1370351776738</v>
       </c>
@@ -12346,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1370351776738</v>
       </c>
@@ -12362,8 +6383,11 @@
       <c r="E2">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1370351782162</v>
       </c>
@@ -12380,7 +6404,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1370351782162</v>
       </c>
@@ -12397,7 +6421,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1370351782194</v>
       </c>
@@ -12414,7 +6438,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1370351782194</v>
       </c>
@@ -12431,7 +6455,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1370351782226</v>
       </c>
@@ -12448,7 +6472,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1370351782226</v>
       </c>
@@ -12465,7 +6489,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1370351782258</v>
       </c>
@@ -12482,7 +6506,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1370351782258</v>
       </c>
@@ -12500,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1370351782290</v>
       </c>
@@ -12518,7 +6542,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1370351782290</v>
       </c>
@@ -12536,7 +6560,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1370351782330</v>
       </c>
@@ -12554,7 +6578,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1370351782330</v>
       </c>
@@ -12572,7 +6596,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1370351782362</v>
       </c>
@@ -12590,7 +6614,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1370351782362</v>
       </c>
@@ -14431,23 +8455,11 @@
       <c r="A141">
         <v>1370351826818</v>
       </c>
-      <c r="B141">
-        <v>125</v>
-      </c>
-      <c r="C141">
-        <v>368</v>
-      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1370351826818</v>
       </c>
-      <c r="B142">
-        <v>125</v>
-      </c>
-      <c r="C142">
-        <v>368</v>
-      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -14457,7 +8469,8 @@
         <v>121</v>
       </c>
       <c r="C143">
-        <v>323</v>
+        <f>323+48</f>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -14468,7 +8481,8 @@
         <v>121</v>
       </c>
       <c r="C144">
-        <v>323</v>
+        <f t="shared" ref="C144:C150" si="2">323+48</f>
+        <v>371</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -14479,7 +8493,8 @@
         <v>121</v>
       </c>
       <c r="C145">
-        <v>323</v>
+        <f t="shared" si="2"/>
+        <v>371</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -14490,7 +8505,8 @@
         <v>121</v>
       </c>
       <c r="C146">
-        <v>323</v>
+        <f t="shared" si="2"/>
+        <v>371</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -14501,7 +8517,8 @@
         <v>121</v>
       </c>
       <c r="C147">
-        <v>323</v>
+        <f t="shared" si="2"/>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -14512,7 +8529,8 @@
         <v>121</v>
       </c>
       <c r="C148">
-        <v>323</v>
+        <f t="shared" si="2"/>
+        <v>371</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -14523,7 +8541,8 @@
         <v>121</v>
       </c>
       <c r="C149">
-        <v>323</v>
+        <f t="shared" si="2"/>
+        <v>371</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -14534,7 +8553,8 @@
         <v>121</v>
       </c>
       <c r="C150">
-        <v>323</v>
+        <f t="shared" si="2"/>
+        <v>371</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -14545,7 +8565,8 @@
         <v>253</v>
       </c>
       <c r="C151">
-        <v>332</v>
+        <f>332+48</f>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -14556,7 +8577,8 @@
         <v>253</v>
       </c>
       <c r="C152">
-        <v>332</v>
+        <f>332+48</f>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -14567,7 +8589,8 @@
         <v>385</v>
       </c>
       <c r="C153">
-        <v>416</v>
+        <f>416-48</f>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -14578,7 +8601,8 @@
         <v>385</v>
       </c>
       <c r="C154">
-        <v>416</v>
+        <f t="shared" ref="C154:C170" si="3">416-48</f>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -14589,7 +8613,8 @@
         <v>385</v>
       </c>
       <c r="C155">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -14600,7 +8625,8 @@
         <v>385</v>
       </c>
       <c r="C156">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -14611,7 +8637,8 @@
         <v>385</v>
       </c>
       <c r="C157">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -14622,7 +8649,8 @@
         <v>385</v>
       </c>
       <c r="C158">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -14633,7 +8661,8 @@
         <v>385</v>
       </c>
       <c r="C159">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -14644,7 +8673,8 @@
         <v>385</v>
       </c>
       <c r="C160">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -14655,7 +8685,8 @@
         <v>385</v>
       </c>
       <c r="C161">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -14666,7 +8697,8 @@
         <v>385</v>
       </c>
       <c r="C162">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -14677,7 +8709,8 @@
         <v>385</v>
       </c>
       <c r="C163">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -14688,7 +8721,8 @@
         <v>385</v>
       </c>
       <c r="C164">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -14699,7 +8733,8 @@
         <v>385</v>
       </c>
       <c r="C165">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -14710,7 +8745,8 @@
         <v>385</v>
       </c>
       <c r="C166">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -14721,7 +8757,8 @@
         <v>385</v>
       </c>
       <c r="C167">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -14732,7 +8769,8 @@
         <v>385</v>
       </c>
       <c r="C168">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -14743,7 +8781,8 @@
         <v>385</v>
       </c>
       <c r="C169">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -14754,7 +8793,8 @@
         <v>385</v>
       </c>
       <c r="C170">
-        <v>416</v>
+        <f t="shared" si="3"/>
+        <v>368</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
